--- a/RelatorioConversoesPorAnoEMes_Ano_2023.xlsx
+++ b/RelatorioConversoesPorAnoEMes_Ano_2023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Ano</t>
   </si>
@@ -53,7 +53,13 @@
     <t>11</t>
   </si>
   <si>
-    <t>89</t>
+    <t>132</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>156</t>
   </si>
 </sst>
 </file>
@@ -115,7 +121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -192,6 +198,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
